--- a/resultaten/Opgave B/OpgaveB_resultaten.xlsx
+++ b/resultaten/Opgave B/OpgaveB_resultaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1ACB4F-11C4-444F-8371-36F358ED80C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB0B34B-D7B0-4824-85A9-9B1A9E666E9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +111,6 @@
   </si>
   <si>
     <t>Run_time</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Capaciteits-Greedy + RandomHillclimber*</t>
@@ -502,7 +500,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +533,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -692,9 +690,6 @@
       <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -713,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
@@ -763,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -892,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
@@ -928,10 +923,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="8">
         <v>1</v>
@@ -948,7 +943,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
@@ -965,7 +960,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>

--- a/resultaten/Opgave B/OpgaveB_resultaten.xlsx
+++ b/resultaten/Opgave B/OpgaveB_resultaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB0B34B-D7B0-4824-85A9-9B1A9E666E9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CAD92-2089-4446-AB08-30E9D65200B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +134,27 @@
   </si>
   <si>
     <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>Dynamische Batterijen</t>
+  </si>
+  <si>
+    <t>K_means + PPA</t>
+  </si>
+  <si>
+    <t>0.9927128188141768</t>
+  </si>
+  <si>
+    <t>i = 1000</t>
   </si>
 </sst>
 </file>
@@ -203,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -215,6 +235,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +531,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -975,10 +998,56 @@
         <v>1963.5</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>40255</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="I1:O8"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/resultaten/Opgave B/OpgaveB_resultaten.xlsx
+++ b/resultaten/Opgave B/OpgaveB_resultaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4CAD92-2089-4446-AB08-30E9D65200B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A25BCF-D6F8-4D8A-AFBE-4A8B87990B43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>i = 1000</t>
+  </si>
+  <si>
+    <t>0.992639884298</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -1035,15 +1038,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D33" s="3">
+        <v>41281</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:O8"/>

--- a/resultaten/Opgave B/OpgaveB_resultaten.xlsx
+++ b/resultaten/Opgave B/OpgaveB_resultaten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A25BCF-D6F8-4D8A-AFBE-4A8B87990B43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9122120F-57DE-473D-958D-CB71884655C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>0.992639884298</t>
+  </si>
+  <si>
+    <t>0.994870200</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1040,15 @@
       <c r="C32" s="8">
         <v>2</v>
       </c>
+      <c r="D32" s="3">
+        <v>39994</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
